--- a/Human/Convection_Related_Plots/Human_Macula_Results_Middle_Vitreous_Slow.xlsx
+++ b/Human/Convection_Related_Plots/Human_Macula_Results_Middle_Vitreous_Slow.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubuffalo-my.sharepoint.com/personal/echacinr_buffalo_edu/Documents/Desktop/Dose in half symmetry/Slow convection/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubuffalo-my.sharepoint.com/personal/echacinr_buffalo_edu/Documents/Desktop/Github Jabias project - normal/Human/Convection_Related_Plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="274" documentId="13_ncr:1_{4297560E-3861-43A8-BF5C-3FEE0C062D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9AF79A6F-FC3C-4ACA-ABD7-557DDEE35C90}"/>
+  <xr:revisionPtr revIDLastSave="278" documentId="13_ncr:1_{4297560E-3861-43A8-BF5C-3FEE0C062D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2B4C2DE-00BE-4546-9CC3-D32C9E2482A0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{26FFA8E2-5374-4B2B-9A88-9D55D5004369}"/>
   </bookViews>
@@ -99,12 +99,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -119,7 +125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -128,7 +134,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -147,9 +154,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -187,7 +194,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -293,7 +300,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -435,7 +442,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -445,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A24BED9-E08F-4972-98A0-D44664231993}">
   <dimension ref="A1:U206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" topLeftCell="J25" workbookViewId="0">
+      <selection activeCell="U37" sqref="T37:U37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,7 +672,7 @@
       <c r="M7" s="2">
         <v>5.98452709644359E-5</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7">
         <f>M7*149000</f>
         <v>8.9169453737009494</v>
       </c>
@@ -722,7 +729,7 @@
         <v>5.6528874950261801E-4</v>
       </c>
       <c r="N8">
-        <f t="shared" ref="N7:N70" si="5">M8*149000</f>
+        <f t="shared" ref="N8:N70" si="5">M8*149000</f>
         <v>84.228023675890086</v>
       </c>
       <c r="P8">
@@ -2499,10 +2506,10 @@
         <f t="shared" si="2"/>
         <v>0.40840296397281822</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="4">
         <v>14.5</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="4">
         <f t="shared" si="6"/>
         <v>0.59486664843109449</v>
       </c>
@@ -2594,10 +2601,10 @@
         <f t="shared" si="4"/>
         <v>0.39155477735238836</v>
       </c>
-      <c r="T37">
+      <c r="T37" s="4">
         <v>15</v>
       </c>
-      <c r="U37">
+      <c r="U37" s="4">
         <f t="shared" si="7"/>
         <v>0.55345089898996869</v>
       </c>
@@ -7403,13 +7410,13 @@
       </c>
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A113">
+      <c r="A113" s="4">
         <v>53.5</v>
       </c>
-      <c r="B113" s="2">
+      <c r="B113" s="5">
         <v>3.5050453572291199E-6</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="4">
         <f t="shared" si="8"/>
         <v>0.52225175822713887</v>
       </c>
@@ -13066,13 +13073,13 @@
         <f t="shared" si="22"/>
         <v>6.2489647680374976E-17</v>
       </c>
-      <c r="L201">
+      <c r="L201" s="4">
         <v>97.5</v>
       </c>
-      <c r="M201" s="2">
+      <c r="M201" s="5">
         <v>3.4452056607257999E-6</v>
       </c>
-      <c r="N201">
+      <c r="N201" s="4">
         <f t="shared" si="29"/>
         <v>0.5133356434481442</v>
       </c>
